--- a/doc/2016立委席次預測.xlsx
+++ b/doc/2016立委席次預測.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="24" windowWidth="9576" windowHeight="3840" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="24" windowWidth="9576" windowHeight="3840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="臺北市" sheetId="2" r:id="rId1"/>
-    <sheet name="SQL" sheetId="4" r:id="rId2"/>
+    <sheet name="新北市" sheetId="5" r:id="rId2"/>
+    <sheet name="桃園市" sheetId="6" r:id="rId3"/>
+    <sheet name="臺中市" sheetId="8" r:id="rId4"/>
+    <sheet name="總和" sheetId="7" r:id="rId5"/>
+    <sheet name="SQL" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>第01選區</t>
   </si>
@@ -102,55 +109,331 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>select C.AreaName, C.color, C.C_votes, L.L_votes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from </t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>select areaname, color, sum(votes) as C_votes</t>
-  </si>
-  <si>
-    <t>from central</t>
-  </si>
-  <si>
-    <t>group by areaname, color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">) C inner join </t>
-  </si>
-  <si>
-    <t>select A.areaname, A.color, sum(L_votes) as L_votes</t>
-  </si>
-  <si>
-    <t>from (</t>
-  </si>
-  <si>
-    <t>select c.areaname, c.unitname, C.color, L.votes as L_votes</t>
-  </si>
-  <si>
-    <t>from central c inner join local L on c.UnitName = L.UnitName and c.color = L.color</t>
-  </si>
-  <si>
-    <t>order by c.areaname, c.unitname, C.color</t>
-  </si>
-  <si>
-    <t>) A</t>
-  </si>
-  <si>
-    <t>group by A.areaname, A.color</t>
-  </si>
-  <si>
-    <t>) L on C.AreaName = L.areaname and C.color = L.color</t>
+    <t xml:space="preserve">alter view central2012 as </t>
+  </si>
+  <si>
+    <t>select c.CityName, c.AreaName, u.Name as unitName,  c.color, sum(u.votes) as votes</t>
+  </si>
+  <si>
+    <t>from candidate c inner join unit u on c.ElectionID = u.ElectionID and c.CityName = u.CityName and c.AreaName = u.AreaName and c.VotedNo = u.VotedNo</t>
+  </si>
+  <si>
+    <t>where C.ElectionID = '201201'</t>
+  </si>
+  <si>
+    <t>group by c.CityName, c.AreaName, u.Name, c.color</t>
+  </si>
+  <si>
+    <t>order by c.CityName, c.AreaName, u.Name, c.color</t>
+  </si>
+  <si>
+    <t>create view central2012G as</t>
+  </si>
+  <si>
+    <t>select cityName, areaName, color, sum(votes) as C_votes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from central2012 </t>
+  </si>
+  <si>
+    <t>group by cityName, areaName, color</t>
+  </si>
+  <si>
+    <t>order by cityName, areaName, color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create view local2014 as </t>
+  </si>
+  <si>
+    <t>select c.cityName, c.areaName, u.name as unitName, c.color, sum(u.votes) as votes</t>
+  </si>
+  <si>
+    <t>from unit u inner join candidate c on u.ElectionID = c.ElectionID and u.CityName = c.CityName and u.AreaName = c.AreaName and u.VotedNo = c.VotedNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where u.electionID = '201401' </t>
+  </si>
+  <si>
+    <t>group by c.cityName, c.areaName, u.name, c.color</t>
+  </si>
+  <si>
+    <t>order by c.cityName, c.areaName, u.name, c.color</t>
+  </si>
+  <si>
+    <t>create view local2012G as</t>
+  </si>
+  <si>
+    <t>select c.cityName, c.AreaName, c.Color, sum(L.votes) as L_votes</t>
+  </si>
+  <si>
+    <t>from central2012 C inner join local2014 L on c.CityName = L.cityName and c.unitname = L.unitName and c.Color = L.color</t>
+  </si>
+  <si>
+    <t>group by c.cityName, c.AreaName, c.Color</t>
+  </si>
+  <si>
+    <t>order by c.cityName, c.AreaName, c.Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create view forecast2016 as </t>
+  </si>
+  <si>
+    <t>select c.CityName, c.areaname, c.color, C_votes, L_votes</t>
+  </si>
+  <si>
+    <t>from central2012g C inner join local2012g L on c.CityName = L.CityName and C.areaName = L.areaName and C.color = L.color</t>
+  </si>
+  <si>
+    <t>第09選區</t>
+  </si>
+  <si>
+    <t>第10選區</t>
+  </si>
+  <si>
+    <t>第11選區</t>
+  </si>
+  <si>
+    <t>第12選區</t>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石門、三芝、淡水、八里、林口、泰山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五股、蘆洲、三重16里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三重103里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新莊75里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹林、鶯歌、新莊9里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板橋65里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板橋61里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中和76里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永和、中和17里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土城、三峽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新店、深坑、石碇、坪林、烏來</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山、萬里、汐止、平溪、瑞芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙溪、貢寮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛藍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛綠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update candidate</t>
+  </si>
+  <si>
+    <t>set color = '藍'</t>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘆竹、龜山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大園、觀音、新屋、楊梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢73里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園65里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平鎮、龍潭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八德、大溪、復興、中壢12里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金門縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地原住民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地原住民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>應選</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陣營</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛藍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛綠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012立委選舉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014縣市議員選舉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select *</t>
+  </si>
+  <si>
+    <t>from forecast2016</t>
+  </si>
+  <si>
+    <t>where cityname = '新北市'</t>
+  </si>
+  <si>
+    <t>order by areaname, color</t>
+  </si>
+  <si>
+    <t>where partyname in ('中國國民黨', '新黨', '親民黨', '無黨團結聯盟') and color = '無';</t>
+  </si>
+  <si>
+    <t>set color = '綠'</t>
+  </si>
+  <si>
+    <t>where partyname in ('民主進步黨', '綠黨', '台灣團結聯盟', '臺灣團結聯盟') and color = '無';</t>
+  </si>
+  <si>
+    <t>大甲、大安、外埔、清水、梧棲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后里、神岡、大雅、潭子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西屯、南屯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北屯、北區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西區、中區、東區、南區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平、大里25里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豐原、石岡、新社、東勢、和平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙鹿、龍井、大肚、烏日、霧峰、大里2里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -200,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +496,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -474,13 +763,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,18 +989,163 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
       <color rgb="FF00A249"/>
-      <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -878,7 +1446,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1233,10 +1801,1418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B17"/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>95163</v>
+      </c>
+      <c r="D2" s="28">
+        <v>132558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>117180</v>
+      </c>
+      <c r="D3" s="11">
+        <v>128330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3420</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>114091</v>
+      </c>
+      <c r="D5" s="28">
+        <v>152702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>76768</v>
+      </c>
+      <c r="D6" s="8">
+        <v>112738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3895</v>
+      </c>
+      <c r="D7" s="9">
+        <v>31780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27">
+        <v>95649</v>
+      </c>
+      <c r="D8" s="28">
+        <v>188723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33">
+        <v>94634</v>
+      </c>
+      <c r="D9" s="11">
+        <v>145039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4683</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>94126</v>
+      </c>
+      <c r="D11" s="28">
+        <v>136158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="24">
+        <v>103165</v>
+      </c>
+      <c r="D12" s="8">
+        <v>110386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2644</v>
+      </c>
+      <c r="D13" s="9">
+        <v>49770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>78651</v>
+      </c>
+      <c r="D14" s="28">
+        <v>86516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="23">
+        <v>90856</v>
+      </c>
+      <c r="D15" s="11">
+        <v>78126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1229</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>73950</v>
+      </c>
+      <c r="D17" s="28">
+        <v>102138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24">
+        <v>86119</v>
+      </c>
+      <c r="D18" s="8">
+        <v>93568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>21411</v>
+      </c>
+      <c r="D19" s="9">
+        <v>30801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>71207</v>
+      </c>
+      <c r="D20" s="28">
+        <v>107908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23">
+        <v>73686</v>
+      </c>
+      <c r="D21" s="11">
+        <v>103079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25170</v>
+      </c>
+      <c r="D22" s="7">
+        <v>36858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>83468</v>
+      </c>
+      <c r="D23" s="10">
+        <v>110034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="24">
+        <v>101161</v>
+      </c>
+      <c r="D24" s="26">
+        <v>114403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43393</v>
+      </c>
+      <c r="D25" s="9">
+        <v>25772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>50656</v>
+      </c>
+      <c r="D26" s="10">
+        <v>116779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="23">
+        <v>89767</v>
+      </c>
+      <c r="D27" s="25">
+        <v>133549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8197</v>
+      </c>
+      <c r="D28" s="7">
+        <v>14414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="27">
+        <v>90118</v>
+      </c>
+      <c r="D29" s="28">
+        <v>103470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="32">
+        <v>89570</v>
+      </c>
+      <c r="D30" s="8">
+        <v>86163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>66506</v>
+      </c>
+      <c r="D31" s="9">
+        <v>126428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>132426</v>
+      </c>
+      <c r="D32" s="25">
+        <v>145835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>38686</v>
+      </c>
+      <c r="D33" s="7">
+        <v>39149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>63122</v>
+      </c>
+      <c r="D34" s="28">
+        <v>125843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="24">
+        <v>73953</v>
+      </c>
+      <c r="D35" s="8">
+        <v>110148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>82820</v>
+      </c>
+      <c r="D2" s="10">
+        <v>72449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>102648</v>
+      </c>
+      <c r="D3" s="25">
+        <v>81168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>91250</v>
+      </c>
+      <c r="D4" s="46">
+        <v>88347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>92035</v>
+      </c>
+      <c r="D5" s="8">
+        <v>70918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1473</v>
+      </c>
+      <c r="D6" s="9">
+        <v>54472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>72395</v>
+      </c>
+      <c r="D7" s="10">
+        <v>79246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>107470</v>
+      </c>
+      <c r="D8" s="25">
+        <v>93738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2094</v>
+      </c>
+      <c r="D9" s="7">
+        <v>33391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>73909</v>
+      </c>
+      <c r="D10" s="10">
+        <v>77956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24">
+        <v>105827</v>
+      </c>
+      <c r="D11" s="26">
+        <v>97093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>33919</v>
+      </c>
+      <c r="D12" s="9">
+        <v>68736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60887</v>
+      </c>
+      <c r="D13" s="10">
+        <v>58437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="23">
+        <v>78504</v>
+      </c>
+      <c r="D14" s="25">
+        <v>82248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>67373</v>
+      </c>
+      <c r="D15" s="7">
+        <v>66542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="24">
+        <v>102528</v>
+      </c>
+      <c r="D16" s="26">
+        <v>97544</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2628</v>
+      </c>
+      <c r="D2" s="7">
+        <v>57932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>81669</v>
+      </c>
+      <c r="D3" s="10">
+        <v>77215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>65438</v>
+      </c>
+      <c r="D4" s="26">
+        <v>84048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="61">
+        <v>118585</v>
+      </c>
+      <c r="D5" s="63">
+        <v>105045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="33">
+        <v>79730</v>
+      </c>
+      <c r="D6" s="62">
+        <v>87389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8789</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>64601</v>
+      </c>
+      <c r="D8" s="28">
+        <v>88889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24">
+        <v>99400</v>
+      </c>
+      <c r="D9" s="8">
+        <v>77738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1104</v>
+      </c>
+      <c r="D10" s="9">
+        <v>27126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>96199</v>
+      </c>
+      <c r="D11" s="10">
+        <v>96727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23">
+        <v>101702</v>
+      </c>
+      <c r="D12" s="25">
+        <v>98018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2726</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>91793</v>
+      </c>
+      <c r="D14" s="10">
+        <v>109929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="24">
+        <v>129822</v>
+      </c>
+      <c r="D15" s="26">
+        <v>118875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5097</v>
+      </c>
+      <c r="D16" s="9">
+        <v>25619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27">
+        <v>96685</v>
+      </c>
+      <c r="D17" s="28">
+        <v>100873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="33">
+        <v>84937</v>
+      </c>
+      <c r="D18" s="11">
+        <v>90056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>459</v>
+      </c>
+      <c r="D19" s="7">
+        <v>59160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="27">
+        <v>101006</v>
+      </c>
+      <c r="D20" s="28">
+        <v>95657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="32">
+        <v>99334</v>
+      </c>
+      <c r="D21" s="8">
+        <v>85678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9531</v>
+      </c>
+      <c r="D22" s="9">
+        <v>39063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>60964</v>
+      </c>
+      <c r="D23" s="28">
+        <v>91864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="24">
+        <v>83925</v>
+      </c>
+      <c r="D24" s="8">
+        <v>83672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="16.8" thickBot="1"/>
+    <row r="2" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B2" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52">
+        <f>SUM(D3:F3)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="56">
+        <v>6</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="64">
+        <v>4092390</v>
+      </c>
+      <c r="J3" s="65">
+        <v>4371576</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="53">
+        <f>SUM(D4:F4)</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="57">
+        <v>2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>6</v>
+      </c>
+      <c r="F4" s="39">
+        <v>4</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="64">
+        <v>4628570</v>
+      </c>
+      <c r="J4" s="65">
+        <v>4630946</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B5" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="53">
+        <f>SUM(D5:F5)</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="57">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="66">
+        <v>415559</v>
+      </c>
+      <c r="J5" s="67">
+        <v>1099575</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(D6:F6)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="57">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3</v>
+      </c>
+      <c r="F6" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM(D7:F7)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
+        <v>5</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="53">
+        <f>SUM(D8:F8)</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38">
+        <v>8</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="53">
+        <f>SUM(D9:F9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="53">
+        <f>SUM(D10:F10)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="53">
+        <f>SUM(D11:F11)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="57">
+        <v>3</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="53">
+        <f>SUM(D12:F12)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B13" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="54">
+        <f>SUM(C3:C12)</f>
+        <v>56</v>
+      </c>
+      <c r="D13" s="59">
+        <f>SUM(D3:D12)</f>
+        <v>24</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" ref="E13:G13" si="0">SUM(E3:E12)</f>
+        <v>24</v>
+      </c>
+      <c r="F13" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="16.8" thickBot="1"/>
+    <row r="17" spans="8:10">
+      <c r="H17" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="64">
+        <v>4092390</v>
+      </c>
+      <c r="J18" s="65">
+        <v>4371576</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="64">
+        <v>4628570</v>
+      </c>
+      <c r="J19" s="65">
+        <v>4630946</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" ht="16.8" thickBot="1">
+      <c r="H20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="66">
+        <v>415559</v>
+      </c>
+      <c r="J20" s="67">
+        <v>1099575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1271,14 +3247,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -1301,24 +3272,124 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2016立委席次預測.xlsx
+++ b/doc/2016立委席次預測.xlsx
@@ -4,15 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="24" windowWidth="9576" windowHeight="3840" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="24" windowWidth="9576" windowHeight="3840" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="臺北市" sheetId="2" r:id="rId1"/>
     <sheet name="新北市" sheetId="5" r:id="rId2"/>
     <sheet name="桃園市" sheetId="6" r:id="rId3"/>
     <sheet name="臺中市" sheetId="8" r:id="rId4"/>
-    <sheet name="總和" sheetId="7" r:id="rId5"/>
-    <sheet name="SQL" sheetId="4" r:id="rId6"/>
+    <sheet name="臺南市" sheetId="9" r:id="rId5"/>
+    <sheet name="高雄市" sheetId="10" r:id="rId6"/>
+    <sheet name="基隆市" sheetId="11" r:id="rId7"/>
+    <sheet name="新竹縣" sheetId="12" r:id="rId8"/>
+    <sheet name="新竹市" sheetId="13" r:id="rId9"/>
+    <sheet name="苗栗縣" sheetId="14" r:id="rId10"/>
+    <sheet name="南投縣" sheetId="15" r:id="rId11"/>
+    <sheet name="彰化縣" sheetId="16" r:id="rId12"/>
+    <sheet name="雲林縣" sheetId="17" r:id="rId13"/>
+    <sheet name="嘉義縣" sheetId="18" r:id="rId14"/>
+    <sheet name="嘉義市" sheetId="19" r:id="rId15"/>
+    <sheet name="屏東縣" sheetId="20" r:id="rId16"/>
+    <sheet name="宜蘭縣" sheetId="21" r:id="rId17"/>
+    <sheet name="花蓮縣" sheetId="22" r:id="rId18"/>
+    <sheet name="臺東縣" sheetId="23" r:id="rId19"/>
+    <sheet name="澎湖縣" sheetId="24" r:id="rId20"/>
+    <sheet name="總和" sheetId="7" r:id="rId21"/>
+    <sheet name="SQL" sheetId="4" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="129">
   <si>
     <t>第01選區</t>
   </si>
@@ -424,6 +440,70 @@
   </si>
   <si>
     <t>高雄市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第02選區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲林縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>澎湖縣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,9 +512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,6 +562,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -503,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -897,13 +994,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,17 +1208,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,6 +1968,1009 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6825</v>
+      </c>
+      <c r="D2" s="7">
+        <v>63785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>56179</v>
+      </c>
+      <c r="D3" s="10">
+        <v>12852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>82902</v>
+      </c>
+      <c r="D4" s="26">
+        <v>69522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>47022</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="24">
+        <v>118858</v>
+      </c>
+      <c r="D6" s="26">
+        <v>57652</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1526</v>
+      </c>
+      <c r="D2" s="7">
+        <v>56667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>49950</v>
+      </c>
+      <c r="D3" s="10">
+        <v>30715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23">
+        <v>78083</v>
+      </c>
+      <c r="D4" s="25">
+        <v>65322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>66447</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="24">
+        <v>79008</v>
+      </c>
+      <c r="D6" s="26">
+        <v>66230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50615</v>
+      </c>
+      <c r="D2" s="7">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>65357</v>
+      </c>
+      <c r="D3" s="10">
+        <v>68487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33">
+        <v>63026</v>
+      </c>
+      <c r="D4" s="25">
+        <v>80848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>77158</v>
+      </c>
+      <c r="D5" s="7">
+        <v>64398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24">
+        <v>96108</v>
+      </c>
+      <c r="D6" s="26">
+        <v>67727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>79969</v>
+      </c>
+      <c r="D7" s="9">
+        <v>69968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>101352</v>
+      </c>
+      <c r="D8" s="25">
+        <v>81688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="70">
+        <v>92085</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="32">
+        <v>91207</v>
+      </c>
+      <c r="D10" s="26">
+        <v>99540</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>89213</v>
+      </c>
+      <c r="D2" s="46">
+        <v>69037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>90811</v>
+      </c>
+      <c r="D3" s="11">
+        <v>21785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3817</v>
+      </c>
+      <c r="D4" s="84">
+        <v>94708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>121368</v>
+      </c>
+      <c r="D5" s="10">
+        <v>67024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>73832</v>
+      </c>
+      <c r="D6" s="8">
+        <v>41491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>72586</v>
+      </c>
+      <c r="D2" s="46">
+        <v>82435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>73481</v>
+      </c>
+      <c r="D3" s="11">
+        <v>38787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="70">
+        <v>86828</v>
+      </c>
+      <c r="D4" s="46">
+        <v>81199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="32">
+        <v>70477</v>
+      </c>
+      <c r="D5" s="8">
+        <v>32987</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3922</v>
+      </c>
+      <c r="D2" s="84">
+        <v>63049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>72343</v>
+      </c>
+      <c r="D3" s="10">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="68">
+        <v>71906</v>
+      </c>
+      <c r="D4" s="69">
+        <v>38332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12720</v>
+      </c>
+      <c r="D2" s="7">
+        <v>35232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>94538</v>
+      </c>
+      <c r="D3" s="10">
+        <v>73644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33">
+        <v>55161</v>
+      </c>
+      <c r="D4" s="25">
+        <v>76294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>75986</v>
+      </c>
+      <c r="D5" s="46">
+        <v>50087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24">
+        <v>80696</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1564</v>
+      </c>
+      <c r="D7" s="9">
+        <v>59219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27">
+        <v>93685</v>
+      </c>
+      <c r="D8" s="28">
+        <v>68817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" thickBot="1">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45314</v>
+      </c>
+      <c r="D9" s="8">
+        <v>37632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="85"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="70">
+        <v>127303</v>
+      </c>
+      <c r="D2" s="46">
+        <v>91631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="68">
+        <v>118971</v>
+      </c>
+      <c r="D3" s="69">
+        <v>89444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37848</v>
+      </c>
+      <c r="D2" s="7">
+        <v>34940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="81"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33326</v>
+      </c>
+      <c r="D3" s="10">
+        <v>26214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="74">
+        <v>57557</v>
+      </c>
+      <c r="D4" s="79">
+        <v>96279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>21381</v>
+      </c>
+      <c r="D2" s="7">
+        <v>28873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>32236</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="68">
+        <v>22553</v>
+      </c>
+      <c r="D4" s="86">
+        <v>74778</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
@@ -2291,6 +3463,803 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="70">
+        <v>23823</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="68">
+        <v>20756</v>
+      </c>
+      <c r="D3" s="79">
+        <v>19549</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="16.8" thickBot="1"/>
+    <row r="2" spans="2:6" ht="16.8" thickBot="1">
+      <c r="B2" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52">
+        <f t="shared" ref="C3:C26" si="0">SUM(D3:F3)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="56">
+        <v>6</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="57">
+        <v>2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>6</v>
+      </c>
+      <c r="F4" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="57">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="57">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3</v>
+      </c>
+      <c r="F6" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
+        <v>5</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38">
+        <v>8</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="57">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="57">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="57">
+        <v>2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="57">
+        <v>4</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="57">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38">
+        <v>2</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2</v>
+      </c>
+      <c r="F18" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="57">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="57">
+        <v>3</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B26" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="58">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.8" thickBot="1">
+      <c r="B27" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="54">
+        <f>SUM(C3:C26)</f>
+        <v>79</v>
+      </c>
+      <c r="D27" s="59">
+        <f>SUM(D3:D26)</f>
+        <v>37</v>
+      </c>
+      <c r="E27" s="49">
+        <f t="shared" ref="E27:F27" si="1">SUM(E3:E26)</f>
+        <v>30</v>
+      </c>
+      <c r="F27" s="50">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="16.8" thickBot="1"/>
+    <row r="31" spans="2:10">
+      <c r="H31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="H32" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="64">
+        <v>4092390</v>
+      </c>
+      <c r="J32" s="65">
+        <v>4371576</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="64">
+        <v>4628570</v>
+      </c>
+      <c r="J33" s="65">
+        <v>4630946</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" ht="16.8" thickBot="1">
+      <c r="H34" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="66">
+        <v>415559</v>
+      </c>
+      <c r="J34" s="67">
+        <v>1099575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2883,321 +4852,186 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.8" thickBot="1"/>
-    <row r="2" spans="2:10" ht="16.8" thickBot="1">
-      <c r="B2" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="52">
-        <f>SUM(D3:F3)</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="56">
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="70">
+        <v>120623</v>
+      </c>
+      <c r="D2" s="46">
+        <v>110009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="32">
+        <v>70581</v>
+      </c>
+      <c r="D3" s="8">
+        <v>62240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4902</v>
+      </c>
+      <c r="D4" s="9">
+        <v>62438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>144399</v>
+      </c>
+      <c r="D5" s="28">
+        <v>108310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33">
+        <v>62794</v>
+      </c>
+      <c r="D6" s="11">
+        <v>58523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2488</v>
+      </c>
+      <c r="D7" s="7">
+        <v>36531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27">
+        <v>139301</v>
+      </c>
+      <c r="D8" s="28">
+        <v>129846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>84095</v>
+      </c>
+      <c r="D9" s="8">
+        <v>65365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="41">
-        <v>1</v>
-      </c>
-      <c r="F3" s="42">
-        <v>1</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="64">
-        <v>4092390</v>
-      </c>
-      <c r="J3" s="65">
-        <v>4371576</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="53">
-        <f>SUM(D4:F4)</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="57">
-        <v>2</v>
-      </c>
-      <c r="E4" s="38">
-        <v>6</v>
-      </c>
-      <c r="F4" s="39">
-        <v>4</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="64">
-        <v>4628570</v>
-      </c>
-      <c r="J4" s="65">
-        <v>4630946</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="16.8" thickBot="1">
-      <c r="B5" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="53">
-        <f>SUM(D5:F5)</f>
-        <v>6</v>
-      </c>
-      <c r="D5" s="57">
-        <v>5</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="66">
-        <v>415559</v>
-      </c>
-      <c r="J5" s="67">
-        <v>1099575</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="53">
-        <f>SUM(D6:F6)</f>
-        <v>8</v>
-      </c>
-      <c r="D6" s="57">
-        <v>2</v>
-      </c>
-      <c r="E6" s="38">
-        <v>3</v>
-      </c>
-      <c r="F6" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(D7:F7)</f>
-        <v>5</v>
-      </c>
-      <c r="D7" s="57">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>5</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(D8:F8)</f>
-        <v>9</v>
-      </c>
-      <c r="D8" s="57">
-        <v>1</v>
-      </c>
-      <c r="E8" s="38">
-        <v>8</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="53">
-        <f>SUM(D9:F9)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="57">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="53">
-        <f>SUM(D10:F10)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="57">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="53">
-        <f>SUM(D11:F11)</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="57">
-        <v>3</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.8" thickBot="1">
-      <c r="B12" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="53">
-        <f>SUM(D12:F12)</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="58">
-        <v>3</v>
-      </c>
-      <c r="E12" s="47">
-        <v>0</v>
-      </c>
-      <c r="F12" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="16.8" thickBot="1">
-      <c r="B13" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="54">
-        <f>SUM(C3:C12)</f>
-        <v>56</v>
-      </c>
-      <c r="D13" s="59">
-        <f>SUM(D3:D12)</f>
-        <v>24</v>
-      </c>
-      <c r="E13" s="49">
-        <f t="shared" ref="E13:G13" si="0">SUM(E3:E12)</f>
-        <v>24</v>
-      </c>
-      <c r="F13" s="50">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="16.8" thickBot="1"/>
-    <row r="17" spans="8:10">
-      <c r="H17" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10">
-      <c r="H18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="64">
-        <v>4092390</v>
-      </c>
-      <c r="J18" s="65">
-        <v>4371576</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10">
-      <c r="H19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="64">
-        <v>4628570</v>
-      </c>
-      <c r="J19" s="65">
-        <v>4630946</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" ht="16.8" thickBot="1">
-      <c r="H20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="66">
-        <v>415559</v>
-      </c>
-      <c r="J20" s="67">
-        <v>1099575</v>
+      <c r="B10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="71">
+        <v>115439</v>
+      </c>
+      <c r="D10" s="72">
+        <v>100368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33">
+        <v>102266</v>
+      </c>
+      <c r="D11" s="11">
+        <v>74952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="70">
+        <v>123895</v>
+      </c>
+      <c r="D12" s="46">
+        <v>94311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="68">
+        <v>106619</v>
+      </c>
+      <c r="D13" s="69">
+        <v>53350</v>
       </c>
     </row>
   </sheetData>
@@ -3209,187 +5043,560 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B47"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>102</v>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="70">
+        <v>89913</v>
+      </c>
+      <c r="D2" s="46">
+        <v>93223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="32">
+        <v>75627</v>
+      </c>
+      <c r="D3" s="8">
+        <v>68478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2301</v>
+      </c>
+      <c r="D4" s="9">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>96818</v>
+      </c>
+      <c r="D5" s="28">
+        <v>117733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33">
+        <v>92902</v>
+      </c>
+      <c r="D6" s="11">
+        <v>79054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>99065</v>
+      </c>
+      <c r="D7" s="7">
+        <v>80214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>108351</v>
+      </c>
+      <c r="D8" s="26">
+        <v>102263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2090</v>
+      </c>
+      <c r="D9" s="9">
+        <v>21790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27">
+        <v>111188</v>
+      </c>
+      <c r="D10" s="28">
+        <v>100013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33">
+        <v>58261</v>
+      </c>
+      <c r="D11" s="11">
+        <v>61003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2159</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>92043</v>
+      </c>
+      <c r="D13" s="28">
+        <v>90379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="32">
+        <v>70896</v>
+      </c>
+      <c r="D14" s="8">
+        <v>56713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="71">
+        <v>81477</v>
+      </c>
+      <c r="D15" s="72">
+        <v>66699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="33">
+        <v>72842</v>
+      </c>
+      <c r="D16" s="11">
+        <v>50730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2539</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27">
+        <v>98341</v>
+      </c>
+      <c r="D18" s="28">
+        <v>95466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="32">
+        <v>83379</v>
+      </c>
+      <c r="D19" s="8">
+        <v>76556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6216</v>
+      </c>
+      <c r="D20" s="9">
+        <v>31931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="27">
+        <v>104292</v>
+      </c>
+      <c r="D21" s="28">
+        <v>103302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>90186</v>
+      </c>
+      <c r="D22" s="11">
+        <v>76283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>53862</v>
+      </c>
+      <c r="D23" s="7">
+        <v>13132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>59258</v>
+      </c>
+      <c r="D24" s="28">
+        <v>101765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A25" s="73"/>
+      <c r="B25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="74">
+        <v>70600</v>
+      </c>
+      <c r="D25" s="69">
+        <v>78296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15638</v>
+      </c>
+      <c r="D2" s="9">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>84487</v>
+      </c>
+      <c r="D3" s="10">
+        <v>51322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="74">
+        <v>110196</v>
+      </c>
+      <c r="D4" s="79">
+        <v>95508</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3484</v>
+      </c>
+      <c r="D2" s="7">
+        <v>85298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>102953</v>
+      </c>
+      <c r="D3" s="10">
+        <v>24550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="74">
+        <v>171466</v>
+      </c>
+      <c r="D4" s="79">
+        <v>145086</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11154</v>
+      </c>
+      <c r="D2" s="83">
+        <v>78350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>95715</v>
+      </c>
+      <c r="D3" s="10">
+        <v>40483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="74">
+        <v>121848</v>
+      </c>
+      <c r="D4" s="69">
+        <v>74291</v>
       </c>
     </row>
   </sheetData>
